--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed5/result_data_RandomForest.xlsx
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.144699999999997</v>
+        <v>4.9758</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.541299999999995</v>
+        <v>6.551699999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.068899999999999</v>
+        <v>9.014900000000006</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.198600000000003</v>
+        <v>5.299499999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.396500000000003</v>
+        <v>6.327400000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.5638</v>
+        <v>4.641099999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.440799999999999</v>
+        <v>5.029499999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.897199999999994</v>
+        <v>5.925599999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.391599999999996</v>
+        <v>5.297099999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.068800000000004</v>
+        <v>5.129600000000003</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.571000000000005</v>
+        <v>5.718400000000005</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.523099999999999</v>
+        <v>4.582999999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
